--- a/conven_control/data/ros_non_optimized_result.xlsx
+++ b/conven_control/data/ros_non_optimized_result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -53,15 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unnamed: 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x_non_stiffness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y_non_stiffness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z_non_stiffness</t>
   </si>
 </sst>
 </file>
@@ -71,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,6 +84,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,8 +136,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -159,13 +162,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
@@ -204,15 +207,6 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -247,15 +241,6 @@
       </c>
       <c r="K2" s="0" t="n">
         <v>4.01</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>3.075</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>5.703</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>7.757</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,15 +277,6 @@
       <c r="K3" s="0" t="n">
         <v>2.958</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>7.856</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -336,15 +312,6 @@
       <c r="K4" s="0" t="n">
         <v>2.437</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>5.567</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>8.168</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -380,15 +347,6 @@
       <c r="K5" s="0" t="n">
         <v>2.566</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>3.135</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>5.524</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>8.31</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -424,15 +382,6 @@
       <c r="K6" s="0" t="n">
         <v>3.315</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>3.225</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>5.255</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>8.267</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -465,17 +414,8 @@
       <c r="J7" s="0" t="n">
         <v>-1.979</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>5.179</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>5.656</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>7.915</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,17 +449,8 @@
       <c r="J8" s="0" t="n">
         <v>-1.353</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>4.835</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>5.513</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>7.803</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,17 +484,8 @@
       <c r="J9" s="0" t="n">
         <v>-0.575</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>4.553</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>7.961</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,17 +519,8 @@
       <c r="J10" s="0" t="n">
         <v>0.265</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>4.62</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>5.224</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>8.128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,17 +554,8 @@
       <c r="J11" s="0" t="n">
         <v>1.075</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>4.963</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>3.183</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>4.889</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>8.13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,17 +589,8 @@
       <c r="J12" s="0" t="n">
         <v>-1.433</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>4.045</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>3.193</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>5.635</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>6.942</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,17 +624,8 @@
       <c r="J13" s="0" t="n">
         <v>-1.08</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>4.906</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>3.162</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>5.391</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>7.486</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,17 +659,8 @@
       <c r="J14" s="0" t="n">
         <v>-0.472</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>5.13</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>3.158</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>5.231</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>7.602</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,17 +694,8 @@
       <c r="J15" s="0" t="n">
         <v>0.211</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>5.112</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>3.204</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>5.095</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>7.42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,17 +729,8 @@
       <c r="J16" s="0" t="n">
         <v>0.817</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>4.77</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>4.925</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>6.825</v>
       </c>
     </row>
   </sheetData>
